--- a/2. Descuentos/Otros/04. descuentos DIC 16 al DIC 24.xlsx
+++ b/2. Descuentos/Otros/04. descuentos DIC 16 al DIC 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAD8E8-9709-4413-A4F9-3C3945C91C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56B708-9FC9-4EB4-A50C-CAA97F05DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Valor</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Maria Lucia Mogollon (Mal Facturado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Aluerzos </t>
   </si>
 </sst>
 </file>
@@ -942,9 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -978,8 +979,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f ca="1">+TODAY()</f>
-        <v>45667</v>
+        <f>+A6+1</f>
+        <v>45650</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
@@ -1229,108 +1230,146 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="3">
+        <f>+A2</f>
+        <v>45650</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20000</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="5"/>
+      <c r="A16" s="3">
+        <f>+A15</f>
+        <v>45650</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>+A16</f>
+        <v>45650</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <f>4*15000</f>
+        <v>60000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
